--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:31:22+00:00</t>
+    <t>2024-12-26T15:51:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-26T15:51:21+00:00</t>
+    <t>2024-12-27T09:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T09:52:33+00:00</t>
+    <t>2024-12-27T10:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:08:00+00:00</t>
+    <t>2024-12-27T10:41:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T10:41:44+00:00</t>
+    <t>2024-12-31T09:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-31T09:40:44+00:00</t>
+    <t>2025-01-02T08:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:06:50+00:00</t>
+    <t>2025-01-02T08:36:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:36:24+00:00</t>
+    <t>2025-01-02T08:46:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T08:46:33+00:00</t>
+    <t>2025-01-02T15:15:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T15:15:39+00:00</t>
+    <t>2025-01-03T16:55:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T16:55:47+00:00</t>
+    <t>2025-01-07T16:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-07T16:15:18+00:00</t>
+    <t>2025-01-09T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T16:21:14+00:00</t>
+    <t>2025-01-11T17:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:10:04+00:00</t>
+    <t>2025-01-11T17:18:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:18:32+00:00</t>
+    <t>2025-01-11T17:45:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-11T17:45:34+00:00</t>
+    <t>2025-01-12T18:13:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-12T18:13:34+00:00</t>
+    <t>2025-01-20T08:50:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:50:22+00:00</t>
+    <t>2025-01-20T08:59:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T08:59:15+00:00</t>
+    <t>2025-01-20T09:27:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:27:26+00:00</t>
+    <t>2025-01-20T09:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T09:49:22+00:00</t>
+    <t>2025-01-20T10:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T10:56:59+00:00</t>
+    <t>2025-01-20T12:54:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T12:54:51+00:00</t>
+    <t>2025-01-20T14:47:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-20T14:47:39+00:00</t>
+    <t>2025-02-04T14:42:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T14:42:57+00:00</t>
+    <t>2025-02-04T16:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T16:03:40+00:00</t>
+    <t>2025-02-04T17:43:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T17:43:23+00:00</t>
+    <t>2025-02-05T08:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T08:50:29+00:00</t>
+    <t>2025-02-05T09:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:01:25+00:00</t>
+    <t>2025-02-05T09:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T09:11:38+00:00</t>
+    <t>2025-02-13T15:32:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-13T15:32:59+00:00</t>
+    <t>2025-02-16T15:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-16T15:11:19+00:00</t>
+    <t>2025-02-19T13:44:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T13:44:58+00:00</t>
+    <t>2025-02-19T14:27:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:27:03+00:00</t>
+    <t>2025-02-19T14:43:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-19T14:43:26+00:00</t>
+    <t>2025-02-21T12:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T12:43:39+00:00</t>
+    <t>2025-02-21T14:39:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T14:39:11+00:00</t>
+    <t>2025-02-21T15:02:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:02:48+00:00</t>
+    <t>2025-02-21T15:30:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-21T15:30:48+00:00</t>
+    <t>2025-02-24T10:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
+++ b/FinalisationMappingPosologie/ig/StructureDefinition-fr-medication-ucd-part.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T10:42:42+00:00</t>
+    <t>2025-02-24T15:51:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
